--- a/results/tables/Table_S1.xlsx
+++ b/results/tables/Table_S1.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Biomass composition" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Media conditions" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Incuded Stickland reactions" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Gapfilled reactions" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="647">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1579,6 +1580,390 @@
   </si>
   <si>
     <t xml:space="preserve">O-Acetyl-L-serine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn09063_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphatidate phosphatase (periplasmic, n-C14:0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn13139_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nucleoside triphosphatase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn00777_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-ribose-5-phosphate aldose-ketose-isomerase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn10175_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fructose transport via PEP:Pyr PTS (f6p generating) (periplasm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn08131_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-amino-2-methyl-5-phosphomethylpyrimidine synthetase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn00970_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydroxybenzoate synthase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn09065_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphatidate phosphatase (periplasmic, n-C16:0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn09429_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fatty acid synthase (n-C18:0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn10030_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b-ketoacyl synthetase (n-C18:1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn01539_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thiamin monophosphate phosphohydrolase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn13251_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fumarate dependent DHORD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn00553_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDP-glucose:D-fructose-6-phosphate 2-alpha-D-glucosyltransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn05039_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-amino-6-(5-phosphoribitylamino)uracil phosphatase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn05291_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b-ketoacyl synthetase (palmitate, n-C16:0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn01953_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-acetyl-D-mannosamine N-acetylmannosaminohydrolase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn03164_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDP-N-acetylmuramoyl-L-alanyl-D-glutamyl-meso-2,6-diaminoheptanedioate:D-alanyl-D-alanine ligase(ADP-forming)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn01359_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(S)-dihydroorotate:NADP+ oxidoreductase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn01014_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hydroxypyruvate carboxy-lyase (glycolaldehyde-forming)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn05744_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b-ketoacyl synthetase (n-C14:0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn09145_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phospholipase A2 (phosphatidate, n-C14:0) (periplasm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn09147_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phospholipase A2 (phosphatidate, n-C16:0) (periplasm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn13140_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn02011_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDP-N-acetylmuramoyl-L-alanyl-D-glutamate:(L)-meso-2,6-diaminoheptanedioate gamma-ligase (ADP-forming)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn10484_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diaminopimelate dehydrogenase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn09119_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytase (periplasm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn09126_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phospholipase A1 (phosphatidate, n-C16:0) (periplasm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn05227_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspartate oxidase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn02928_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,3,4,5-Tetrahydrodipicolinate:NAD+ oxidoreductase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn00620_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDPglycerol phosphoglycerohydrolase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn00341_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Carbamoyl-L-aspartate amidohydrolase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn09348_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDPgalactose pyrophosphohydrolase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn09163_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phospholipase A2 (phosphatidylglycerol, n-C18:0) (periplasm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn00605_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDP-glucose:D-glucose-6-phosphate 1-alpha-D-glucosyltransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn01105_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTP:3-phospho-D-glycerate 1-phosphotransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn07466_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Ala-D-Ala dipeptidase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn00579_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDP-glucose:D-fructose 2-alpha-D-glucosyltransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn00010_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glyoxylate carboxy-lyase (dimerizing; tartronate-semialdehyde-forming)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn01538_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP:thiamine phosphotransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn01182_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-Coumarate:CoA ligase (AMP-forming)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn10840_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-arginine transport via diffusion (extracellular to periplasm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn12239_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-hydroxy-benzyl-alcohol dehydrogenase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn09341_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDP-N-acetyl-D-glucosamine pyrophosphohydrolase (periplasm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn13914_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn10053_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphoribosylaminoimidazole carboxylase (ATP-dependent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn10663_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatty acid oxidation (n-C16:1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn03852_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDP-N-acetyl-D-mannosamine:N-acetyl-beta-D-glucosaminyldiphosphoundecaprenol beta-1,4-N-acetylmannosaminyltransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn09142_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phospholipase A1 (phosphatidylglycerol, n-C18:0) (periplasm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn02476_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphoenolpyruvate:3-phosphoshikimate 5-O-(1-carboxyvinyl)-transferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn10036_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b-ketoacyl synthetase (n-C16:1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn00285_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Succinate:CoA ligase (ADP-forming)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn00958_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-Hydroxybenzaldehyde:NADP+ oxidoreductase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn01256_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chorismate pyruvatemutase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn02269_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(S)-3-methyl-2-oxopentanoate:NAD+ 2-oxidoreductase (CoA-methylbutanoylating)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn08040_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDP-N-acetyl-D-glucosamine:undecaprenyl-phosphate N-acetyl-D-glucosamine phosphotransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn01669_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicotinamide-D-ribonucleotide amidohydrolase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn12676_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enoyl-CoA hydratase/aldolase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn13012_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inositol-pentakisphosphate 2-kinase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn01644_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-Aspartate-4-semialdehyde hydro-lyase (adding pyruvate and cyclizing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn05293_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2C-methyl-D-erythritol 2,4 cyclodiphosphate dehydratase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn00530_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-tyrosine ammonia-lyase (trans-p-hydroxycinnamate-forming)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn01520_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,10-Methylenetetrahydrofolate:dUMP C-methyltransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn03167_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Amino-4-hydroxy-6-(erythro-1,2,3-trihydroxypropyl) dihydropteridine triphosphate phosphohydrolase (alkaline optimum)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn09124_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phospholipase A1 (phosphatidate, n-C14:0) (periplasm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn02286_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDP-N-acetylmuramate:L-alanine ligase (ADP-forming)</t>
   </si>
 </sst>
 </file>
@@ -1776,11 +2161,11 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.47"/>
@@ -2407,11 +2792,11 @@
   </sheetPr>
   <dimension ref="B2:L997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="30.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.73"/>
@@ -11340,11 +11725,11 @@
   </sheetPr>
   <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="25.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.22"/>
@@ -11835,4 +12220,553 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ65"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="105.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>646</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>